--- a/REGULAR/PERENA, RUBILINDA.xlsx
+++ b/REGULAR/PERENA, RUBILINDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEF761D-7E4A-4141-8482-091816980644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="329">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1020,12 +1013,21 @@
   </si>
   <si>
     <t>DOMESTIC 8/15,16/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>10/28,29,30</t>
+  </si>
+  <si>
+    <t>10/26,28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1256,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1395,13 +1397,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1410,18 +1406,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1916,7 +1901,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1944,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2008,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2068,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2134,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2197,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2295,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2354,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2419,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2462,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2537,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2723,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2789,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2847,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2913,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2969,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3044,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +3087,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3153,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,7 +3209,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3307,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3370,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,25 +3436,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K479" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K482" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="21"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="20"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="19"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="18"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="16"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="13">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3481,13 +3466,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS" dataDxfId="6"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3496,14 +3481,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3807,7 +3792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3817,7 +3802,7 @@
       <selection activeCell="G3" activeCellId="1" sqref="G3 G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3825,95 +3810,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K479"/>
+  <dimension ref="A2:K482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="5175" topLeftCell="A387" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3660" topLeftCell="A467" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="J443" sqref="J443"/>
+      <selection pane="bottomLeft" activeCell="F477" sqref="F477"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="65"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3921,37 +3906,37 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="58"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +3971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3995,7 +3980,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>74.769000000000062</v>
+        <v>76.019000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4005,12 +3990,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>201.20799999999997</v>
+        <v>207.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>42</v>
       </c>
@@ -4032,7 +4017,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35619</v>
       </c>
@@ -4052,7 +4037,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35643</v>
       </c>
@@ -4072,7 +4057,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35674</v>
       </c>
@@ -4092,7 +4077,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35704</v>
       </c>
@@ -4112,7 +4097,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35735</v>
       </c>
@@ -4132,7 +4117,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35765</v>
       </c>
@@ -4152,7 +4137,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>43</v>
       </c>
@@ -4170,7 +4155,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>35796</v>
       </c>
@@ -4194,11 +4179,11 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35827</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="13">
@@ -4216,13 +4201,13 @@
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="49">
+      <c r="K19" s="48">
         <v>35832</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="13"/>
@@ -4242,9 +4227,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="13"/>
@@ -4262,7 +4247,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f>EDATE(A19,1)</f>
         <v>35855</v>
@@ -4289,7 +4274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" ref="A23:A124" si="0">EDATE(A22,1)</f>
         <v>35886</v>
@@ -4310,7 +4295,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4333,11 +4318,11 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="49">
+      <c r="K24" s="48">
         <v>35940</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>45</v>
@@ -4355,11 +4340,11 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="49">
+      <c r="K25" s="48">
         <v>35930</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -4379,7 +4364,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f>EDATE(A24,1)</f>
         <v>35947</v>
@@ -4404,7 +4389,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -4427,11 +4412,11 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="49">
+      <c r="K28" s="48">
         <v>35982</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4454,11 +4439,11 @@
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="49">
+      <c r="K29" s="48">
         <v>36024</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -4478,7 +4463,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>36039</v>
@@ -4501,11 +4486,11 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="49">
+      <c r="K31" s="48">
         <v>36062</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>55</v>
@@ -4525,7 +4510,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36069</v>
@@ -4552,7 +4537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>141</v>
@@ -4572,7 +4557,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>36100</v>
@@ -4597,7 +4582,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -4624,7 +4609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>61</v>
@@ -4646,7 +4631,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>63</v>
@@ -4666,7 +4651,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>64</v>
       </c>
@@ -4684,7 +4669,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A36,1)</f>
         <v>36161</v>
@@ -4709,7 +4694,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -4732,11 +4717,11 @@
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="49">
+      <c r="K41" s="48">
         <v>36210</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>66</v>
@@ -4754,11 +4739,11 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="49" t="s">
+      <c r="K42" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A41,1)</f>
         <v>36220</v>
@@ -4783,7 +4768,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -4801,11 +4786,11 @@
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="49">
+      <c r="K44" s="48">
         <v>36244</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>45</v>
@@ -4823,11 +4808,11 @@
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="49">
+      <c r="K45" s="48">
         <v>36248</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>70</v>
@@ -4847,7 +4832,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f>EDATE(A43,1)</f>
         <v>36251</v>
@@ -4872,7 +4857,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -4895,11 +4880,11 @@
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="49">
+      <c r="K48" s="48">
         <v>36283</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -4917,11 +4902,11 @@
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="49">
+      <c r="K49" s="48">
         <v>36300</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>45</v>
@@ -4939,11 +4924,11 @@
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="49">
+      <c r="K50" s="48">
         <v>36310</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>52</v>
@@ -4961,9 +4946,9 @@
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="49"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="48"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A48,1)</f>
         <v>36312</v>
@@ -4988,7 +4973,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5011,11 +4996,11 @@
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="49">
+      <c r="K53" s="48">
         <v>36364</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5038,11 +5023,11 @@
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="49">
+      <c r="K54" s="48">
         <v>36403</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5067,7 +5052,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5088,7 +5073,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5113,7 +5098,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5136,11 +5121,11 @@
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="49">
+      <c r="K58" s="48">
         <v>36501</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>74</v>
@@ -5158,11 +5143,11 @@
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="49">
+      <c r="K59" s="48">
         <v>36516</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>75</v>
@@ -5180,9 +5165,9 @@
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="49"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="48"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>76</v>
       </c>
@@ -5198,9 +5183,9 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="49"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="48"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f>EDATE(A58,1)</f>
         <v>36526</v>
@@ -5223,11 +5208,11 @@
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="49">
+      <c r="K62" s="48">
         <v>36538</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>53</v>
@@ -5245,9 +5230,9 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="49"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="48"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36557</v>
@@ -5270,11 +5255,11 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="49">
+      <c r="K64" s="48">
         <v>36564</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>77</v>
@@ -5292,11 +5277,11 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="49" t="s">
+      <c r="K65" s="48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>65</v>
@@ -5314,9 +5299,9 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="49"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="48"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>36586</v>
@@ -5341,7 +5326,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A67,1)</f>
         <v>36617</v>
@@ -5366,7 +5351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>77</v>
@@ -5388,7 +5373,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>80</v>
@@ -5408,7 +5393,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A68,1)</f>
         <v>36647</v>
@@ -5431,11 +5416,11 @@
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="49">
+      <c r="K71" s="48">
         <v>36676</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>81</v>
@@ -5453,9 +5438,9 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="49"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="48"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A71,1)</f>
         <v>36678</v>
@@ -5478,11 +5463,11 @@
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="49">
+      <c r="K73" s="48">
         <v>36704</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>83</v>
@@ -5500,9 +5485,9 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="49"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="48"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>36708</v>
@@ -5523,7 +5508,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A75,1)</f>
         <v>36739</v>
@@ -5546,11 +5531,11 @@
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="49">
+      <c r="K76" s="48">
         <v>36746</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>84</v>
@@ -5572,7 +5557,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>36770</v>
@@ -5595,11 +5580,11 @@
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="49">
+      <c r="K78" s="48">
         <v>36798</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>86</v>
@@ -5617,9 +5602,9 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="49"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="48"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36800</v>
@@ -5640,7 +5625,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -5665,8 +5650,8 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="50">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
         <f>EDATE(A81,1)</f>
         <v>36861</v>
       </c>
@@ -5690,9 +5675,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="51" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40"/>
+      <c r="B83" s="49" t="s">
         <v>45</v>
       </c>
       <c r="C83" s="13"/>
@@ -5708,15 +5693,15 @@
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49">
+      <c r="K83" s="48">
         <v>36879</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="51"/>
+      <c r="B84" s="49"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
@@ -5730,7 +5715,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36892</v>
@@ -5755,9 +5740,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
-      <c r="B86" s="52" t="s">
+      <c r="B86" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C86" s="13"/>
@@ -5773,16 +5758,16 @@
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49">
+      <c r="K86" s="48">
         <v>36915</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f>EDATE(A85,1)</f>
         <v>36923</v>
       </c>
-      <c r="B87" s="52" t="s">
+      <c r="B87" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C87" s="13">
@@ -5800,13 +5785,13 @@
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="49">
+      <c r="K87" s="48">
         <v>36938</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="50" t="s">
         <v>66</v>
       </c>
       <c r="C88" s="13"/>
@@ -5822,11 +5807,11 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="49" t="s">
+      <c r="K88" s="48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36951</v>
@@ -5851,7 +5836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -5876,7 +5861,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>94</v>
@@ -5898,7 +5883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>37012</v>
@@ -5925,7 +5910,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -5950,7 +5935,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -5975,7 +5960,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -5996,7 +5981,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -6021,7 +6006,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A96,1)</f>
         <v>37165</v>
@@ -6044,11 +6029,11 @@
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="49">
+      <c r="K97" s="48">
         <v>37165</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -6066,11 +6051,11 @@
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="49">
+      <c r="K98" s="48">
         <v>37183</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>37196</v>
@@ -6095,7 +6080,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>99</v>
@@ -6115,7 +6100,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A99,1)</f>
         <v>37226</v>
@@ -6140,7 +6125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
         <v>101</v>
       </c>
@@ -6158,7 +6143,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>37257</v>
@@ -6179,7 +6164,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -6206,7 +6191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>53</v>
@@ -6226,7 +6211,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37316</v>
@@ -6247,7 +6232,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
         <v>37347</v>
@@ -6274,7 +6259,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="0"/>
         <v>37377</v>
@@ -6295,7 +6280,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="0"/>
         <v>37408</v>
@@ -6316,7 +6301,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -6337,7 +6322,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -6358,7 +6343,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -6379,7 +6364,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -6406,7 +6391,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>68</v>
@@ -6426,7 +6411,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37561</v>
@@ -6447,7 +6432,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -6468,7 +6453,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="47" t="s">
         <v>106</v>
       </c>
@@ -6486,7 +6471,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37622</v>
@@ -6507,7 +6492,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>37653</v>
@@ -6534,7 +6519,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -6561,7 +6546,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -6582,7 +6567,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A121,1)</f>
         <v>37742</v>
@@ -6603,7 +6588,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -6624,7 +6609,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -6645,7 +6630,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" ref="A125:A209" si="1">EDATE(A124,1)</f>
         <v>37834</v>
@@ -6666,7 +6651,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6691,7 +6676,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6718,7 +6703,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37926</v>
@@ -6743,7 +6728,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6768,7 +6753,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6788,7 +6773,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>114</v>
       </c>
@@ -6806,7 +6791,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A129,1)</f>
         <v>37987</v>
@@ -6831,7 +6816,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -6858,7 +6843,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>118</v>
@@ -6880,7 +6865,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>38047</v>
@@ -6905,7 +6890,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>68</v>
@@ -6925,7 +6910,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>68</v>
@@ -6945,7 +6930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>68</v>
@@ -6965,7 +6950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f>EDATE(A135,1)</f>
         <v>38078</v>
@@ -6992,9 +6977,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
-      <c r="B140" s="53" t="s">
+      <c r="B140" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C140" s="13"/>
@@ -7012,7 +6997,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>38108</v>
@@ -7037,7 +7022,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -7060,11 +7045,11 @@
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="49">
+      <c r="K142" s="48">
         <v>38149</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>124</v>
@@ -7084,9 +7069,9 @@
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="49"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="48"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>38169</v>
@@ -7109,11 +7094,11 @@
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="49">
+      <c r="K144" s="48">
         <v>38176</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>45</v>
@@ -7131,11 +7116,11 @@
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="49">
+      <c r="K145" s="48">
         <v>38182</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>98</v>
@@ -7153,9 +7138,9 @@
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="49"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K146" s="48"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A144,1)</f>
         <v>38200</v>
@@ -7182,7 +7167,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>45</v>
@@ -7200,11 +7185,11 @@
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="49">
+      <c r="K148" s="48">
         <v>38215</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>126</v>
@@ -7224,7 +7209,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A147,1)</f>
         <v>38231</v>
@@ -7249,7 +7234,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -7272,11 +7257,11 @@
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="49">
+      <c r="K151" s="48">
         <v>38273</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>45</v>
@@ -7294,11 +7279,11 @@
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="49">
+      <c r="K152" s="48">
         <v>38285</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>128</v>
@@ -7318,7 +7303,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>38292</v>
@@ -7343,7 +7328,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -7370,7 +7355,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>142</v>
@@ -7390,7 +7375,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="47" t="s">
         <v>130</v>
       </c>
@@ -7408,7 +7393,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38353</v>
@@ -7435,7 +7420,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -7458,11 +7443,11 @@
       </c>
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="49">
+      <c r="K159" s="48">
         <v>38401</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>68</v>
@@ -7478,11 +7463,11 @@
       <c r="H160" s="39"/>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="49" t="s">
+      <c r="K160" s="48" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>99</v>
@@ -7500,9 +7485,9 @@
       <c r="H161" s="39"/>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="49"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K161" s="48"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A159,1)</f>
         <v>38412</v>
@@ -7527,7 +7512,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -7550,11 +7535,11 @@
       </c>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
-      <c r="K163" s="49">
+      <c r="K163" s="48">
         <v>38447</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>143</v>
@@ -7572,9 +7557,9 @@
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="49"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K164" s="48"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>38473</v>
@@ -7599,7 +7584,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -7624,7 +7609,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>51</v>
@@ -7646,7 +7631,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>38534</v>
@@ -7671,7 +7656,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -7696,7 +7681,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -7721,7 +7706,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -7742,7 +7727,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>38657</v>
@@ -7765,11 +7750,11 @@
       </c>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="49">
+      <c r="K172" s="48">
         <v>38666</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>45</v>
@@ -7787,11 +7772,11 @@
       </c>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="49">
+      <c r="K173" s="48">
         <v>38674</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>127</v>
@@ -7809,9 +7794,9 @@
       <c r="H174" s="39"/>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="49"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K174" s="48"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A172,1)</f>
         <v>38687</v>
@@ -7834,11 +7819,11 @@
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="49">
+      <c r="K175" s="48">
         <v>38691</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>138</v>
@@ -7854,11 +7839,11 @@
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="49" t="s">
+      <c r="K176" s="48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>134</v>
@@ -7876,9 +7861,9 @@
       <c r="H177" s="39"/>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
-      <c r="K177" s="49"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K177" s="48"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="47" t="s">
         <v>140</v>
       </c>
@@ -7894,9 +7879,9 @@
       <c r="H178" s="39"/>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
-      <c r="K178" s="49"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K178" s="48"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A175,1)</f>
         <v>38718</v>
@@ -7917,7 +7902,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="1"/>
         <v>38749</v>
@@ -7942,7 +7927,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>68</v>
@@ -7962,7 +7947,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>150</v>
@@ -7982,7 +7967,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>38777</v>
@@ -8009,7 +7994,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>45</v>
@@ -8027,11 +8012,11 @@
       </c>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="49">
+      <c r="K184" s="48">
         <v>38799</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>152</v>
@@ -8049,9 +8034,9 @@
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="49"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K185" s="48"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>38808</v>
@@ -8076,7 +8061,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="1"/>
         <v>38838</v>
@@ -8101,7 +8086,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -8122,7 +8107,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="1"/>
         <v>38899</v>
@@ -8147,7 +8132,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="1"/>
         <v>38930</v>
@@ -8174,7 +8159,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>161</v>
@@ -8194,7 +8179,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38961</v>
@@ -8215,7 +8200,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38991</v>
@@ -8240,7 +8225,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>39022</v>
@@ -8265,7 +8250,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="1"/>
         <v>39052</v>
@@ -8290,7 +8275,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>113</v>
@@ -8310,7 +8295,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="47" t="s">
         <v>162</v>
       </c>
@@ -8328,7 +8313,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A195,1)</f>
         <v>39083</v>
@@ -8353,7 +8338,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="1"/>
         <v>39114</v>
@@ -8378,7 +8363,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
@@ -8403,7 +8388,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -8424,7 +8409,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f t="shared" si="1"/>
         <v>39203</v>
@@ -8449,7 +8434,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f t="shared" si="1"/>
         <v>39234</v>
@@ -8474,7 +8459,7 @@
       <c r="J203" s="12"/>
       <c r="K203" s="15"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f t="shared" si="1"/>
         <v>39264</v>
@@ -8499,7 +8484,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" si="1"/>
         <v>39295</v>
@@ -8524,7 +8509,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="1"/>
         <v>39326</v>
@@ -8549,7 +8534,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>136</v>
@@ -8569,7 +8554,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>39356</v>
@@ -8590,7 +8575,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="1"/>
         <v>39387</v>
@@ -8617,7 +8602,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>135</v>
@@ -8637,7 +8622,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>39417</v>
@@ -8662,7 +8647,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="47" t="s">
         <v>172</v>
       </c>
@@ -8680,7 +8665,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>39448</v>
@@ -8705,7 +8690,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>174</v>
@@ -8725,7 +8710,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39479</v>
@@ -8752,7 +8737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>68</v>
@@ -8772,7 +8757,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>177</v>
@@ -8792,7 +8777,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>39508</v>
@@ -8817,7 +8802,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" ref="A219:A266" si="2">EDATE(A218,1)</f>
         <v>39539</v>
@@ -8842,7 +8827,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="2"/>
         <v>39569</v>
@@ -8867,7 +8852,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="2"/>
         <v>39600</v>
@@ -8892,7 +8877,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="2"/>
         <v>39630</v>
@@ -8915,11 +8900,11 @@
       </c>
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
-      <c r="K222" s="56">
+      <c r="K222" s="51">
         <v>45121</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>181</v>
@@ -8937,9 +8922,9 @@
       <c r="H223" s="39"/>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
-      <c r="K223" s="56"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K223" s="51"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f>EDATE(A222,1)</f>
         <v>39661</v>
@@ -8966,7 +8951,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>84</v>
@@ -8984,11 +8969,11 @@
       </c>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
-      <c r="K225" s="49">
+      <c r="K225" s="48">
         <v>45526</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>183</v>
@@ -9008,7 +8993,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f>EDATE(A224,1)</f>
         <v>39692</v>
@@ -9035,7 +9020,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>83</v>
@@ -9055,7 +9040,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A227,1)</f>
         <v>39722</v>
@@ -9080,7 +9065,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="2"/>
         <v>39753</v>
@@ -9105,7 +9090,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="2"/>
         <v>39783</v>
@@ -9130,7 +9115,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>189</v>
@@ -9150,7 +9135,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="47" t="s">
         <v>184</v>
       </c>
@@ -9168,7 +9153,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A231,1)</f>
         <v>39814</v>
@@ -9193,7 +9178,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="2"/>
         <v>39845</v>
@@ -9218,7 +9203,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="2"/>
         <v>39873</v>
@@ -9245,7 +9230,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>94</v>
@@ -9265,7 +9250,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>45</v>
@@ -9283,11 +9268,11 @@
       </c>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
-      <c r="K238" s="49">
+      <c r="K238" s="48">
         <v>39903</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>206</v>
@@ -9305,9 +9290,9 @@
       <c r="H239" s="39"/>
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
-      <c r="K239" s="49"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K239" s="48"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39904</v>
@@ -9332,7 +9317,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="2"/>
         <v>39934</v>
@@ -9357,7 +9342,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>61</v>
@@ -9377,7 +9362,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A241,1)</f>
         <v>39965</v>
@@ -9400,11 +9385,11 @@
       </c>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="49">
+      <c r="K243" s="48">
         <v>39993</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>205</v>
@@ -9422,9 +9407,9 @@
       <c r="H244" s="39"/>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="49"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K244" s="48"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39995</v>
@@ -9449,7 +9434,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="2"/>
         <v>40026</v>
@@ -9476,7 +9461,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>199</v>
@@ -9496,7 +9481,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>40057</v>
@@ -9521,7 +9506,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>40087</v>
@@ -9546,7 +9531,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="2"/>
         <v>40118</v>
@@ -9571,7 +9556,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="2"/>
         <v>40148</v>
@@ -9598,7 +9583,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>204</v>
@@ -9618,7 +9603,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="47" t="s">
         <v>207</v>
       </c>
@@ -9636,7 +9621,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>40179</v>
@@ -9661,7 +9646,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -9681,11 +9666,11 @@
       </c>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="49">
+      <c r="K255" s="48">
         <v>40183</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>40210</v>
@@ -9712,7 +9697,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>211</v>
@@ -9732,7 +9717,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>51</v>
@@ -9754,7 +9739,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>40238</v>
@@ -9779,7 +9764,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>214</v>
@@ -9799,7 +9784,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>40269</v>
@@ -9824,7 +9809,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -9849,7 +9834,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>61</v>
@@ -9871,7 +9856,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>40330</v>
@@ -9896,7 +9881,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -9921,7 +9906,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -9946,7 +9931,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>45</v>
@@ -9964,11 +9949,11 @@
       </c>
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
-      <c r="K267" s="49">
+      <c r="K267" s="48">
         <v>40393</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40422</v>
@@ -9991,11 +9976,11 @@
       </c>
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="49">
+      <c r="K268" s="48">
         <v>40441</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>221</v>
@@ -10013,9 +9998,9 @@
       <c r="H269" s="39"/>
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
-      <c r="K269" s="49"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K269" s="48"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>45</v>
@@ -10033,11 +10018,11 @@
       </c>
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
-      <c r="K270" s="49">
+      <c r="K270" s="48">
         <v>40437</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>40452</v>
@@ -10058,7 +10043,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>40483</v>
@@ -10083,7 +10068,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>45</v>
@@ -10101,11 +10086,11 @@
       </c>
       <c r="I273" s="9"/>
       <c r="J273" s="11"/>
-      <c r="K273" s="49">
+      <c r="K273" s="48">
         <v>40497</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>72</v>
@@ -10125,7 +10110,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>40513</v>
@@ -10150,7 +10135,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="47" t="s">
         <v>224</v>
       </c>
@@ -10168,7 +10153,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>40544</v>
@@ -10193,7 +10178,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -10211,11 +10196,11 @@
       </c>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
-      <c r="K278" s="49">
+      <c r="K278" s="48">
         <v>40571</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>40575</v>
@@ -10242,7 +10227,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>68</v>
@@ -10262,7 +10247,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>227</v>
@@ -10282,7 +10267,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>40603</v>
@@ -10307,7 +10292,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>51</v>
@@ -10329,7 +10314,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>40634</v>
@@ -10354,7 +10339,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -10372,11 +10357,11 @@
       </c>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
-      <c r="K285" s="49">
+      <c r="K285" s="48">
         <v>40644</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>40664</v>
@@ -10401,7 +10386,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>45</v>
@@ -10419,11 +10404,11 @@
       </c>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
-      <c r="K287" s="49">
+      <c r="K287" s="48">
         <v>40676</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>40695</v>
@@ -10448,7 +10433,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>51</v>
@@ -10470,7 +10455,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>40725</v>
@@ -10495,7 +10480,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10513,11 +10498,11 @@
       </c>
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
-      <c r="K291" s="49">
+      <c r="K291" s="48">
         <v>40729</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A290,1)</f>
         <v>40756</v>
@@ -10542,7 +10527,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>45</v>
@@ -10560,11 +10545,11 @@
       </c>
       <c r="I293" s="9"/>
       <c r="J293" s="11"/>
-      <c r="K293" s="49">
+      <c r="K293" s="48">
         <v>40770</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>40787</v>
@@ -10589,7 +10574,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>51</v>
@@ -10609,7 +10594,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f>EDATE(A294,1)</f>
         <v>40817</v>
@@ -10634,7 +10619,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>61</v>
@@ -10656,7 +10641,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>40848</v>
@@ -10681,7 +10666,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -10699,11 +10684,11 @@
       </c>
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
-      <c r="K299" s="49">
+      <c r="K299" s="48">
         <v>40868</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>240</v>
@@ -10723,7 +10708,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f>EDATE(A298,1)</f>
         <v>40878</v>
@@ -10748,7 +10733,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -10766,11 +10751,11 @@
       </c>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
-      <c r="K302" s="49">
+      <c r="K302" s="48">
         <v>40886</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="47" t="s">
         <v>242</v>
       </c>
@@ -10786,9 +10771,9 @@
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
-      <c r="K303" s="49"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K303" s="48"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A301,1)</f>
         <v>40909</v>
@@ -10813,7 +10798,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>252</v>
@@ -10833,7 +10818,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40940</v>
@@ -10856,11 +10841,11 @@
       <c r="H306" s="39"/>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
-      <c r="K306" s="49">
+      <c r="K306" s="48">
         <v>40596</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>68</v>
@@ -10876,11 +10861,11 @@
       <c r="H307" s="39"/>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
-      <c r="K307" s="49" t="s">
+      <c r="K307" s="48" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>253</v>
@@ -10898,9 +10883,9 @@
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
-      <c r="K308" s="49"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K308" s="48"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>61</v>
@@ -10918,9 +10903,9 @@
       </c>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="49"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K309" s="48"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A306,1)</f>
         <v>40969</v>
@@ -10945,7 +10930,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f t="shared" ref="A311:A331" si="3">EDATE(A310,1)</f>
         <v>41000</v>
@@ -10970,7 +10955,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="3"/>
         <v>41030</v>
@@ -10995,7 +10980,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f t="shared" si="3"/>
         <v>41061</v>
@@ -11020,7 +11005,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" si="3"/>
         <v>41091</v>
@@ -11045,7 +11030,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f t="shared" si="3"/>
         <v>41122</v>
@@ -11066,7 +11051,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A315,1)</f>
         <v>41153</v>
@@ -11091,7 +11076,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>84</v>
@@ -11111,7 +11096,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>41183</v>
@@ -11136,7 +11121,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="3"/>
         <v>41214</v>
@@ -11161,7 +11146,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="3"/>
         <v>41244</v>
@@ -11186,7 +11171,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>259</v>
@@ -11208,7 +11193,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>261</v>
@@ -11228,7 +11213,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="47" t="s">
         <v>243</v>
       </c>
@@ -11246,7 +11231,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A320,1)</f>
         <v>41275</v>
@@ -11271,7 +11256,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" si="3"/>
         <v>41306</v>
@@ -11298,7 +11283,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>157</v>
@@ -11320,7 +11305,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>68</v>
@@ -11340,7 +11325,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>266</v>
@@ -11360,7 +11345,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>41334</v>
@@ -11385,7 +11370,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="3"/>
         <v>41365</v>
@@ -11406,7 +11391,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="3"/>
         <v>41395</v>
@@ -11431,7 +11416,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A331,1)</f>
         <v>41426</v>
@@ -11456,7 +11441,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" ref="A333:A363" si="4">EDATE(A332,1)</f>
         <v>41456</v>
@@ -11481,7 +11466,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="4"/>
         <v>41487</v>
@@ -11506,7 +11491,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -11531,7 +11516,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="4"/>
         <v>41548</v>
@@ -11556,7 +11541,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f t="shared" si="4"/>
         <v>41579</v>
@@ -11581,7 +11566,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="4"/>
         <v>41609</v>
@@ -11606,7 +11591,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>113</v>
@@ -11626,7 +11611,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="47" t="s">
         <v>244</v>
       </c>
@@ -11644,7 +11629,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A338,1)</f>
         <v>41640</v>
@@ -11669,7 +11654,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>84</v>
@@ -11689,7 +11674,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f>EDATE(A341,1)</f>
         <v>41671</v>
@@ -11714,7 +11699,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" si="4"/>
         <v>41699</v>
@@ -11739,7 +11724,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="4"/>
         <v>41730</v>
@@ -11764,7 +11749,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f t="shared" si="4"/>
         <v>41760</v>
@@ -11789,7 +11774,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="4"/>
         <v>41791</v>
@@ -11814,7 +11799,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="4"/>
         <v>41821</v>
@@ -11839,7 +11824,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -11864,7 +11849,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>279</v>
@@ -11884,7 +11869,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A349,1)</f>
         <v>41883</v>
@@ -11911,7 +11896,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>95</v>
@@ -11931,7 +11916,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>84</v>
@@ -11951,7 +11936,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>41913</v>
@@ -11976,7 +11961,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" si="4"/>
         <v>41944</v>
@@ -12003,7 +11988,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="4"/>
         <v>41974</v>
@@ -12024,7 +12009,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="47" t="s">
         <v>245</v>
       </c>
@@ -12042,7 +12027,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>42005</v>
@@ -12067,7 +12052,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>90</v>
@@ -12087,7 +12072,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>42036</v>
@@ -12114,7 +12099,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>284</v>
@@ -12134,7 +12119,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A360,1)</f>
         <v>42064</v>
@@ -12159,7 +12144,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f t="shared" si="4"/>
         <v>42095</v>
@@ -12184,7 +12169,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f>EDATE(A363,1)</f>
         <v>42125</v>
@@ -12209,7 +12194,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" ref="A365:A419" si="5">EDATE(A364,1)</f>
         <v>42156</v>
@@ -12234,7 +12219,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f t="shared" si="5"/>
         <v>42186</v>
@@ -12259,7 +12244,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f t="shared" si="5"/>
         <v>42217</v>
@@ -12284,7 +12269,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f t="shared" si="5"/>
         <v>42248</v>
@@ -12305,11 +12290,11 @@
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
-      <c r="K368" s="49">
+      <c r="K368" s="48">
         <v>42272</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>289</v>
@@ -12327,9 +12312,9 @@
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
-      <c r="K369" s="49"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K369" s="48"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>42278</v>
@@ -12352,11 +12337,11 @@
       </c>
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
-      <c r="K370" s="49">
+      <c r="K370" s="48">
         <v>42277</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>45</v>
@@ -12374,11 +12359,11 @@
       </c>
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
-      <c r="K371" s="49">
+      <c r="K371" s="48">
         <v>42333</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>290</v>
@@ -12396,9 +12381,9 @@
       <c r="H372" s="39"/>
       <c r="I372" s="9"/>
       <c r="J372" s="11"/>
-      <c r="K372" s="49"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K372" s="48"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f>EDATE(A370,1)</f>
         <v>42309</v>
@@ -12423,7 +12408,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="5"/>
         <v>42339</v>
@@ -12450,7 +12435,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>293</v>
@@ -12470,7 +12455,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="47" t="s">
         <v>246</v>
       </c>
@@ -12488,7 +12473,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>42370</v>
@@ -12513,7 +12498,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>45</v>
@@ -12531,11 +12516,11 @@
       </c>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="49">
+      <c r="K378" s="48">
         <v>42398</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>42401</v>
@@ -12560,7 +12545,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>49</v>
@@ -12582,7 +12567,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>42430</v>
@@ -12607,7 +12592,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="5"/>
         <v>42461</v>
@@ -12632,7 +12617,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="5"/>
         <v>42491</v>
@@ -12657,7 +12642,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="5"/>
         <v>42522</v>
@@ -12682,7 +12667,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="5"/>
         <v>42552</v>
@@ -12707,7 +12692,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="5"/>
         <v>42583</v>
@@ -12732,7 +12717,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="5"/>
         <v>42614</v>
@@ -12757,7 +12742,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="5"/>
         <v>42644</v>
@@ -12782,7 +12767,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="5"/>
         <v>42675</v>
@@ -12803,7 +12788,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="5"/>
         <v>42705</v>
@@ -12828,7 +12813,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>170</v>
@@ -12848,7 +12833,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="47" t="s">
         <v>247</v>
       </c>
@@ -12866,7 +12851,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>42736</v>
@@ -12891,7 +12876,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f t="shared" si="5"/>
         <v>42767</v>
@@ -12916,7 +12901,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>84</v>
@@ -12938,7 +12923,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A394,1)</f>
         <v>42795</v>
@@ -12963,7 +12948,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f t="shared" si="5"/>
         <v>42826</v>
@@ -12984,7 +12969,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="5"/>
         <v>42856</v>
@@ -13009,7 +12994,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" si="5"/>
         <v>42887</v>
@@ -13034,7 +13019,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>51</v>
@@ -13056,7 +13041,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f>EDATE(A399,1)</f>
         <v>42917</v>
@@ -13081,7 +13066,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" si="5"/>
         <v>42948</v>
@@ -13106,7 +13091,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="5"/>
         <v>42979</v>
@@ -13133,7 +13118,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>83</v>
@@ -13153,7 +13138,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>43009</v>
@@ -13180,7 +13165,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>257</v>
@@ -13200,7 +13185,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>43040</v>
@@ -13221,7 +13206,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -13248,7 +13233,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>157</v>
@@ -13268,7 +13253,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="47" t="s">
         <v>248</v>
       </c>
@@ -13283,7 +13268,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A408,1)</f>
         <v>43101</v>
@@ -13304,7 +13289,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f t="shared" si="5"/>
         <v>43132</v>
@@ -13325,7 +13310,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f t="shared" si="5"/>
         <v>43160</v>
@@ -13346,7 +13331,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="5"/>
         <v>43191</v>
@@ -13367,7 +13352,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="5"/>
         <v>43221</v>
@@ -13388,7 +13373,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" si="5"/>
         <v>43252</v>
@@ -13409,7 +13394,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="5"/>
         <v>43282</v>
@@ -13430,7 +13415,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f t="shared" si="5"/>
         <v>43313</v>
@@ -13457,7 +13442,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f t="shared" si="5"/>
         <v>43344</v>
@@ -13478,7 +13463,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A419,1)</f>
         <v>43374</v>
@@ -13499,9 +13484,9 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
-        <f t="shared" ref="A421:A479" si="6">EDATE(A420,1)</f>
+        <f t="shared" ref="A421:A480" si="6">EDATE(A420,1)</f>
         <v>43405</v>
       </c>
       <c r="B421" s="20"/>
@@ -13520,7 +13505,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="6"/>
         <v>43435</v>
@@ -13545,7 +13530,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>77</v>
@@ -13567,7 +13552,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="47" t="s">
         <v>249</v>
       </c>
@@ -13585,7 +13570,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A422,1)</f>
         <v>43466</v>
@@ -13612,7 +13597,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="6"/>
         <v>43497</v>
@@ -13639,7 +13624,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>68</v>
@@ -13659,7 +13644,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f>EDATE(A426,1)</f>
         <v>43525</v>
@@ -13680,7 +13665,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="6"/>
         <v>43556</v>
@@ -13701,7 +13686,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f t="shared" si="6"/>
         <v>43586</v>
@@ -13722,7 +13707,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="6"/>
         <v>43617</v>
@@ -13743,7 +13728,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="6"/>
         <v>43647</v>
@@ -13764,7 +13749,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" si="6"/>
         <v>43678</v>
@@ -13787,11 +13772,11 @@
       </c>
       <c r="I433" s="9"/>
       <c r="J433" s="11"/>
-      <c r="K433" s="49">
+      <c r="K433" s="48">
         <v>43700</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f t="shared" si="6"/>
         <v>43709</v>
@@ -13812,7 +13797,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="6"/>
         <v>43739</v>
@@ -13833,7 +13818,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="6"/>
         <v>43770</v>
@@ -13860,7 +13845,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="6"/>
         <v>43800</v>
@@ -13881,7 +13866,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="47" t="s">
         <v>250</v>
       </c>
@@ -13899,7 +13884,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>43831</v>
@@ -13920,7 +13905,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f t="shared" si="6"/>
         <v>43862</v>
@@ -13945,7 +13930,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>318</v>
@@ -13965,7 +13950,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>43891</v>
@@ -13986,7 +13971,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="6"/>
         <v>43922</v>
@@ -14007,7 +13992,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="6"/>
         <v>43952</v>
@@ -14028,7 +14013,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f t="shared" si="6"/>
         <v>43983</v>
@@ -14049,7 +14034,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="6"/>
         <v>44013</v>
@@ -14070,7 +14055,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="6"/>
         <v>44044</v>
@@ -14091,7 +14076,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f t="shared" si="6"/>
         <v>44075</v>
@@ -14112,7 +14097,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f t="shared" si="6"/>
         <v>44105</v>
@@ -14133,7 +14118,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" si="6"/>
         <v>44136</v>
@@ -14158,7 +14143,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>66</v>
@@ -14180,7 +14165,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f>EDATE(A450,1)</f>
         <v>44166</v>
@@ -14205,7 +14190,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="47" t="s">
         <v>323</v>
       </c>
@@ -14223,7 +14208,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>44197</v>
@@ -14248,7 +14233,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <f t="shared" si="6"/>
         <v>44228</v>
@@ -14269,7 +14254,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f t="shared" si="6"/>
         <v>44256</v>
@@ -14290,7 +14275,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f t="shared" si="6"/>
         <v>44287</v>
@@ -14311,7 +14296,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="6"/>
         <v>44317</v>
@@ -14332,7 +14317,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="6"/>
         <v>44348</v>
@@ -14353,7 +14338,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="6"/>
         <v>44378</v>
@@ -14374,7 +14359,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <f t="shared" si="6"/>
         <v>44409</v>
@@ -14395,7 +14380,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f t="shared" si="6"/>
         <v>44440</v>
@@ -14416,7 +14401,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="6"/>
         <v>44470</v>
@@ -14437,7 +14422,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="6"/>
         <v>44501</v>
@@ -14458,7 +14443,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f t="shared" si="6"/>
         <v>44531</v>
@@ -14479,7 +14464,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="47" t="s">
         <v>324</v>
       </c>
@@ -14497,7 +14482,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f>EDATE(A465,1)</f>
         <v>44562</v>
@@ -14518,7 +14503,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f t="shared" si="6"/>
         <v>44593</v>
@@ -14539,7 +14524,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="6"/>
         <v>44621</v>
@@ -14560,7 +14545,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="6"/>
         <v>44652</v>
@@ -14581,7 +14566,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f t="shared" si="6"/>
         <v>44682</v>
@@ -14602,7 +14587,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f t="shared" si="6"/>
         <v>44713</v>
@@ -14623,7 +14608,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f t="shared" si="6"/>
         <v>44743</v>
@@ -14644,7 +14629,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" si="6"/>
         <v>44774</v>
@@ -14669,50 +14654,59 @@
         <v>325</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="6"/>
         <v>44805</v>
       </c>
       <c r="B475" s="20"/>
-      <c r="C475" s="13"/>
+      <c r="C475" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D475" s="39"/>
       <c r="E475" s="9"/>
       <c r="F475" s="20"/>
-      <c r="G475" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G475" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H475" s="39"/>
       <c r="I475" s="9"/>
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f t="shared" si="6"/>
         <v>44835</v>
       </c>
-      <c r="B476" s="20"/>
-      <c r="C476" s="13"/>
-      <c r="D476" s="39"/>
+      <c r="B476" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C476" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D476" s="39">
+        <v>3</v>
+      </c>
       <c r="E476" s="9"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G476" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H476" s="39"/>
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
-      <c r="K476" s="20"/>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A477" s="40">
-        <f t="shared" si="6"/>
-        <v>44866</v>
-      </c>
-      <c r="B477" s="20"/>
+      <c r="K476" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477" s="40"/>
+      <c r="B477" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C477" s="13"/>
       <c r="D477" s="39"/>
       <c r="E477" s="9"/>
@@ -14724,16 +14718,19 @@
       <c r="H477" s="39"/>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="20"/>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" s="40">
-        <f t="shared" si="6"/>
-        <v>44896</v>
-      </c>
-      <c r="B478" s="20"/>
+      <c r="K477" s="48">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="40"/>
+      <c r="B478" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C478" s="13"/>
-      <c r="D478" s="39"/>
+      <c r="D478" s="39">
+        <v>2</v>
+      </c>
       <c r="E478" s="9"/>
       <c r="F478" s="20"/>
       <c r="G478" s="13" t="str">
@@ -14743,26 +14740,90 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K478" s="48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
-        <f t="shared" si="6"/>
-        <v>44927</v>
+        <f>EDATE(A476,1)</f>
+        <v>44866</v>
       </c>
       <c r="B479" s="20"/>
-      <c r="C479" s="13"/>
+      <c r="C479" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D479" s="39"/>
       <c r="E479" s="9"/>
       <c r="F479" s="20"/>
-      <c r="G479" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G479" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H479" s="39"/>
       <c r="I479" s="9"/>
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="40">
+        <f t="shared" si="6"/>
+        <v>44896</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D480" s="39"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H480" s="39"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="39"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="39"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="40">
+        <f>EDATE(A480,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D482" s="39"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H482" s="39"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14779,10 +14840,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14805,7 +14866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14813,34 +14874,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="69" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="J1" s="70" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14869,10 +14930,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3" s="55"/>
+      <c r="D3"/>
       <c r="E3">
         <v>4</v>
       </c>
@@ -14895,17 +14956,17 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14918,15 +14979,15 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="I6" s="70" t="s">
+      <c r="G6" s="43"/>
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14953,7 +15014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14979,7 +15040,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15005,7 +15066,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15031,7 +15092,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15057,7 +15118,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15083,7 +15144,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15109,7 +15170,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15135,7 +15196,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15155,7 +15216,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15175,7 +15236,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15195,7 +15256,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15216,7 +15277,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15237,7 +15298,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15258,7 +15319,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15279,7 +15340,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15300,7 +15361,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15321,7 +15382,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15342,7 +15403,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15363,7 +15424,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15384,7 +15445,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15405,7 +15466,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15426,7 +15487,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15447,7 +15508,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15468,7 +15529,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15489,7 +15550,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15510,7 +15571,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15531,7 +15592,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15552,7 +15613,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15573,7 +15634,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15594,7 +15655,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15615,7 +15676,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15624,7 +15685,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15633,7 +15694,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15642,7 +15703,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15651,7 +15712,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15660,7 +15721,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15669,7 +15730,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15678,7 +15739,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15687,7 +15748,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15696,7 +15757,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15705,7 +15766,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15714,7 +15775,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15723,7 +15784,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15732,7 +15793,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15741,7 +15802,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15750,7 +15811,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15759,7 +15820,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15768,7 +15829,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15777,7 +15838,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15786,7 +15847,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15795,7 +15856,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15804,7 +15865,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15813,7 +15874,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15822,7 +15883,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15831,7 +15892,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15840,7 +15901,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15849,7 +15910,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15858,7 +15919,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15867,7 +15928,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15876,7 +15937,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
